--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,66 +40,36 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -112,174 +82,159 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>proud</t>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
@@ -287,6 +242,12 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -644,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -763,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -813,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -831,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.875</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9583333333333334</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1055,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>406</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.9375</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.9</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6948051948051948</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="C13">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1231,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1255,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1263,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4761904761904762</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.7890625</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,45 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.775</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,45 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.75</v>
+      </c>
+      <c r="L16">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L16">
-        <v>44</v>
-      </c>
       <c r="M16">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,490 +1321,298 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7413793103448276</v>
+      </c>
+      <c r="L17">
+        <v>43</v>
+      </c>
+      <c r="M17">
+        <v>43</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7253521126760564</v>
+      </c>
+      <c r="L18">
+        <v>103</v>
+      </c>
+      <c r="M18">
+        <v>103</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>11</v>
       </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>17</v>
-      </c>
-      <c r="J17" s="1" t="s">
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L22">
+        <v>73</v>
+      </c>
+      <c r="M22">
+        <v>73</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.6875</v>
+      </c>
+      <c r="L23">
+        <v>110</v>
+      </c>
+      <c r="M23">
+        <v>110</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>24</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.62</v>
+      </c>
+      <c r="L25">
+        <v>31</v>
+      </c>
+      <c r="M25">
+        <v>31</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L26">
+        <v>57</v>
+      </c>
+      <c r="M26">
+        <v>57</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K17">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L17">
-        <v>11</v>
-      </c>
-      <c r="M17">
-        <v>11</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3776824034334764</v>
-      </c>
-      <c r="C18">
-        <v>88</v>
-      </c>
-      <c r="D18">
-        <v>88</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>145</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K27">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L27">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K18">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L18">
-        <v>47</v>
-      </c>
-      <c r="M18">
-        <v>47</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.375</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>19</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L20">
-        <v>42</v>
-      </c>
-      <c r="M20">
-        <v>42</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>19</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>66</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L22">
-        <v>44</v>
-      </c>
-      <c r="M22">
-        <v>44</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.2</v>
-      </c>
-      <c r="C23">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>64</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>97</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L25">
-        <v>45</v>
-      </c>
-      <c r="M25">
-        <v>45</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K28">
-        <v>0.717948717948718</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L28">
         <v>28</v>
@@ -1909,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.7083333333333334</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1935,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.7058823529411765</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1961,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.6923076923076923</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1987,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.68</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2013,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.525</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2039,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.6538461538461539</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2065,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.6470588235294118</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2091,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.64</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2117,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.6363636363636364</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2143,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.631578947368421</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2169,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.6164383561643836</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L39">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="M39">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2195,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5833333333333334</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2221,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.5833333333333334</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2247,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5666666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2273,21 +1994,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.539906103286385</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L43">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2299,21 +2020,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.5384615384615384</v>
+        <v>0.40625</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2325,21 +2046,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.5384615384615384</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2351,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.5384615384615384</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2377,21 +2098,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.3682008368200837</v>
       </c>
       <c r="L47">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="M47">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2403,21 +2124,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L48">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2429,21 +2150,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.4961240310077519</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L49">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2455,21 +2176,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.4673913043478261</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L50">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2481,21 +2202,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.45</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L51">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2507,15 +2228,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.4285714285714285</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L52">
         <v>15</v>
@@ -2533,21 +2254,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K53">
-        <v>0.4</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L53">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2559,21 +2280,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K54">
-        <v>0.3928571428571428</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="L54">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2585,21 +2306,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K55">
-        <v>0.36</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="L55">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M55">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2611,21 +2332,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>16</v>
+        <v>861</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K56">
-        <v>0.3333333333333333</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2637,163 +2358,85 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>16</v>
+        <v>881</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K57">
-        <v>0.2972972972972973</v>
+        <v>0.01635514018691589</v>
       </c>
       <c r="L57">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M57">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K58">
-        <v>0.28125</v>
+        <v>0.01129396579541788</v>
       </c>
       <c r="L58">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59">
-        <v>0.2368421052631579</v>
+        <v>0.006576886940181647</v>
       </c>
       <c r="L59">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K60">
-        <v>0.03658536585365853</v>
-      </c>
-      <c r="L60">
-        <v>15</v>
-      </c>
-      <c r="M60">
-        <v>15</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61">
-        <v>0.02582159624413146</v>
-      </c>
-      <c r="L61">
-        <v>11</v>
-      </c>
-      <c r="M61">
-        <v>11</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K62">
-        <v>0.008021390374331552</v>
-      </c>
-      <c r="L62">
-        <v>9</v>
-      </c>
-      <c r="M62">
-        <v>10</v>
-      </c>
-      <c r="N62">
-        <v>0.9</v>
-      </c>
-      <c r="O62">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1113</v>
+        <v>3172</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,16 +46,25 @@
     <t>died</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>sc</t>
@@ -64,187 +73,175 @@
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>beauty</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>gt</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>share</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
   <si>
     <t>corona</t>
@@ -605,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +613,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
@@ -701,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -748,13 +745,13 @@
         <v>22</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9615384615384616</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -824,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6232876712328768</v>
+        <v>0.64</v>
       </c>
       <c r="C6">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
@@ -874,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -924,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5862068965517241</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
@@ -951,10 +948,10 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2222222222222222</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8947368421052632</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2131782945736434</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>406</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1948051948051948</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8482142857142857</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1342281879194631</v>
+        <v>0.2112403100775194</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8414634146341463</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.07142857142857142</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1300,13 +1297,13 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7734375</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1326,13 +1323,13 @@
         <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7413793103448276</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1344,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1352,13 +1349,13 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>0.7253521126760564</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L18">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1370,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1378,13 +1375,13 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1404,13 +1401,13 @@
         <v>38</v>
       </c>
       <c r="K20">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1430,13 +1427,13 @@
         <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1448,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1456,13 +1453,13 @@
         <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6886792452830188</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L22">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M22">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1474,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1508,13 +1505,13 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1526,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1534,13 +1531,13 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1552,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1560,13 +1557,13 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.6063829787234043</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1578,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1586,13 +1583,13 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.6041666666666666</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1604,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1612,13 +1609,13 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5957446808510638</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1630,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1638,13 +1635,13 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5882352941176471</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1656,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1690,13 +1687,13 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.5652173913043478</v>
+        <v>0.5625</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1708,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1716,13 +1713,13 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.5294117647058824</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1734,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1742,13 +1739,13 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.525</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1760,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1768,13 +1765,13 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.5169712793733682</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L34">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1786,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>185</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1794,13 +1791,13 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1812,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1820,13 +1817,13 @@
         <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4823529411764706</v>
+        <v>0.5300261096605744</v>
       </c>
       <c r="L36">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="M36">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1838,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1846,13 +1843,13 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.4719101123595505</v>
+        <v>0.525</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1864,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1872,13 +1869,13 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>0.4642857142857143</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1890,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1898,13 +1895,13 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>0.4406779661016949</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L39">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="M39">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1916,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1924,13 +1921,13 @@
         <v>58</v>
       </c>
       <c r="K40">
-        <v>0.4246575342465753</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1942,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1950,13 +1947,13 @@
         <v>59</v>
       </c>
       <c r="K41">
-        <v>0.4222222222222222</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1968,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>26</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1976,13 +1973,13 @@
         <v>60</v>
       </c>
       <c r="K42">
-        <v>0.4193548387096774</v>
+        <v>0.421875</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1994,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2002,13 +1999,13 @@
         <v>61</v>
       </c>
       <c r="K43">
-        <v>0.4153846153846154</v>
+        <v>0.4</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2020,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2028,13 +2025,13 @@
         <v>62</v>
       </c>
       <c r="K44">
-        <v>0.40625</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2046,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2054,13 +2051,13 @@
         <v>63</v>
       </c>
       <c r="K45">
-        <v>0.3717948717948718</v>
+        <v>0.375</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2072,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2080,13 +2077,13 @@
         <v>64</v>
       </c>
       <c r="K46">
-        <v>0.3714285714285714</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2098,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2132,13 +2129,13 @@
         <v>66</v>
       </c>
       <c r="K48">
-        <v>0.3488372093023256</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2150,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2158,13 +2155,13 @@
         <v>67</v>
       </c>
       <c r="K49">
-        <v>0.2765957446808511</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2176,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2184,13 +2181,13 @@
         <v>68</v>
       </c>
       <c r="K50">
-        <v>0.2083333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2202,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2210,13 +2207,13 @@
         <v>69</v>
       </c>
       <c r="K51">
-        <v>0.1857142857142857</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2228,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>57</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2236,13 +2233,13 @@
         <v>70</v>
       </c>
       <c r="K52">
-        <v>0.1181102362204724</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2254,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>112</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2262,13 +2259,13 @@
         <v>71</v>
       </c>
       <c r="K53">
-        <v>0.06976744186046512</v>
+        <v>0.04138702460850112</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2280,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>200</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2288,13 +2285,13 @@
         <v>72</v>
       </c>
       <c r="K54">
-        <v>0.04326923076923077</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L54">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2306,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2314,13 +2311,13 @@
         <v>73</v>
       </c>
       <c r="K55">
-        <v>0.03691275167785235</v>
+        <v>0.03107658157602664</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2332,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>861</v>
+        <v>873</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2340,25 +2337,25 @@
         <v>74</v>
       </c>
       <c r="K56">
-        <v>0.02219755826859045</v>
+        <v>0.01450209474701901</v>
       </c>
       <c r="L56">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M56">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>881</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2366,25 +2363,25 @@
         <v>75</v>
       </c>
       <c r="K57">
-        <v>0.01635514018691589</v>
+        <v>0.01399906672888474</v>
       </c>
       <c r="L57">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N57">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>2105</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2392,51 +2389,25 @@
         <v>76</v>
       </c>
       <c r="K58">
-        <v>0.01129396579541788</v>
+        <v>0.004068857589984351</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N58">
-        <v>0.8100000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="O58">
-        <v>0.1899999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K59">
-        <v>0.006576886940181647</v>
-      </c>
-      <c r="L59">
-        <v>21</v>
-      </c>
-      <c r="M59">
-        <v>29</v>
-      </c>
-      <c r="N59">
-        <v>0.72</v>
-      </c>
-      <c r="O59">
-        <v>0.28</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>3172</v>
+        <v>3182</v>
       </c>
     </row>
   </sheetData>
